--- a/figure/abbr.xlsx
+++ b/figure/abbr.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanwar/Desktop/PhD_thesis/figure/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDE8A74-29AC-D747-BD58-CB0996D0BAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="1260" yWindow="500" windowWidth="18560" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Short</t>
   </si>
@@ -179,32 +188,219 @@
   </si>
   <si>
     <t>Differentially expressed genes</t>
+  </si>
+  <si>
+    <t>Whole-genome bisulfite sequencing</t>
+  </si>
+  <si>
+    <t>WGBS</t>
+  </si>
+  <si>
+    <t>RCS</t>
+  </si>
+  <si>
+    <t>Revision control system</t>
+  </si>
+  <si>
+    <t>SVN</t>
+  </si>
+  <si>
+    <t>Apache subversion</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Hypertext markup language</t>
+  </si>
+  <si>
+    <t>Q-scores</t>
+  </si>
+  <si>
+    <t>Quality scores</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Quality control</t>
+  </si>
+  <si>
+    <t>TMM</t>
+  </si>
+  <si>
+    <t>Trimmed Mean of M values</t>
+  </si>
+  <si>
+    <t>DEU</t>
+  </si>
+  <si>
+    <t>Differential exon usage</t>
+  </si>
+  <si>
+    <t>3' UTRs</t>
+  </si>
+  <si>
+    <t>3' untranslated regions</t>
+  </si>
+  <si>
+    <t>KEGG</t>
+  </si>
+  <si>
+    <t>Kyoto Encyclopedia of Genes and Genomes</t>
+  </si>
+  <si>
+    <t>CAMERA</t>
+  </si>
+  <si>
+    <t>Correlation Adjusted MEan RAnk gene set test</t>
+  </si>
+  <si>
+    <t>CAMERA-PR</t>
+  </si>
+  <si>
+    <t>Camera pre-ranked</t>
+  </si>
+  <si>
+    <t>ROMER</t>
+  </si>
+  <si>
+    <t>ROtation testing using MEan Ranks</t>
+  </si>
+  <si>
+    <t>ROAST</t>
+  </si>
+  <si>
+    <t>ROtAtion gene Set Testing</t>
+  </si>
+  <si>
+    <t>TREAT</t>
+  </si>
+  <si>
+    <t>Testing relative to a threshold</t>
+  </si>
+  <si>
+    <t>OCRs</t>
+  </si>
+  <si>
+    <t>Open chromatin regions</t>
+  </si>
+  <si>
+    <t>FAIRE-Seq</t>
+  </si>
+  <si>
+    <t>Formaldehyde-Assisted Isolation of Regulatory Elements sequencing</t>
+  </si>
+  <si>
+    <t>DNase-Seq</t>
+  </si>
+  <si>
+    <t>DNase I hypersensitive sites sequencing</t>
+  </si>
+  <si>
+    <t>NFF</t>
+  </si>
+  <si>
+    <t>Nucleosome Free Fragments</t>
+  </si>
+  <si>
+    <t>Kilobase</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>Bp</t>
+  </si>
+  <si>
+    <t>Basepair</t>
+  </si>
+  <si>
+    <t>GTF</t>
+  </si>
+  <si>
+    <t>Gene transfer format</t>
+  </si>
+  <si>
+    <t>glmQLFit</t>
+  </si>
+  <si>
+    <t>Genewise Negative Binomial Generalized Linear Models with Quasi-likelihood</t>
+  </si>
+  <si>
+    <t>GREAT</t>
+  </si>
+  <si>
+    <t>Genomic Regions Enrichment of Annotations Tool</t>
+  </si>
+  <si>
+    <t>TEs</t>
+  </si>
+  <si>
+    <t>Transposable elements</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>Differentially methylated loci</t>
+  </si>
+  <si>
+    <t>DMR</t>
+  </si>
+  <si>
+    <t>Differentially methylated region</t>
+  </si>
+  <si>
+    <t>CNV</t>
+  </si>
+  <si>
+    <t>Copy number variation</t>
+  </si>
+  <si>
+    <t>UMIs</t>
+  </si>
+  <si>
+    <t>Unique Molecular Identifiers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF5F6368"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -212,7 +408,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -222,44 +418,48 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -449,20 +649,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="75.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,223 +678,458 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B52" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>55</v>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B57">
+    <sortCondition ref="A2:A57"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>